--- a/Data/Age group 2018.xlsx
+++ b/Data/Age group 2018.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Moon\University\CSC160\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Moon\University\CSC160\FinalProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C8337F-04AA-4DFF-B4F8-2B10C62E50A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201A677C-8BCD-4EC3-AFAF-A551662B98D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,36 +20,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>16 to 24</t>
+    <t>Age start</t>
   </si>
   <si>
-    <t>25 to 34</t>
+    <t>Age end</t>
   </si>
   <si>
-    <t>35 to 44</t>
-  </si>
-  <si>
-    <t>45 to 54</t>
-  </si>
-  <si>
-    <t>55 to 64</t>
-  </si>
-  <si>
-    <t>65 and older</t>
+    <t>Earning ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.##"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -88,16 +78,10 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -444,66 +428,94 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2">
         <v>88.51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>44</v>
+      </c>
+      <c r="C4">
         <v>78.87</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>54</v>
+      </c>
+      <c r="C5">
         <v>76.98</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>64</v>
+      </c>
+      <c r="C6">
         <v>75.150000000000006</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <v>66</v>
+      </c>
+      <c r="C7">
         <v>73</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
